--- a/second-assignment/results/graphical-results.xlsx
+++ b/second-assignment/results/graphical-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reti-geografiche\second-assignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC09CA4-31EA-46DA-97E2-217CDED77397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5361D5-F454-4789-9E2D-C16822F53249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F597E2AF-9B54-48F5-BFFD-D192780F8031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Numero richieste concorrenti</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>[Ngnix] Richieste per secondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Apache: </t>
+  </si>
+  <si>
+    <t>Peso documento:</t>
+  </si>
+  <si>
+    <t>799 bytes</t>
+  </si>
+  <si>
+    <t>Media Ngnix:</t>
+  </si>
+  <si>
+    <t>29790 bytes</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +140,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -295,25 +325,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19.829999999999998</c:v>
+                  <c:v>68.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.34</c:v>
+                  <c:v>243.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.9</c:v>
+                  <c:v>220.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.53</c:v>
+                  <c:v>243.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.91</c:v>
+                  <c:v>221.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.33</c:v>
+                  <c:v>245.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.45</c:v>
+                  <c:v>244.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,25 +431,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28.18</c:v>
+                  <c:v>71.760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.24</c:v>
+                  <c:v>246.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.04</c:v>
+                  <c:v>232.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.3</c:v>
+                  <c:v>237.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.09</c:v>
+                  <c:v>227.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.8</c:v>
+                  <c:v>229.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.3</c:v>
+                  <c:v>224.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,25 +840,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>105.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>222.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>229.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>234.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>216.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>209.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>215.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,25 +946,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>63.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>242.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>243.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>232.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>237.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>232.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>229.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,8 +2318,8 @@
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -2324,8 +2354,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
@@ -2654,19 +2684,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7922A49-D7ED-46CE-8978-668A478D3ACA}">
-  <dimension ref="C1:E40"/>
+  <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="5" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2677,84 +2708,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>19.829999999999998</v>
+        <v>68.44</v>
       </c>
       <c r="E2" s="1">
-        <v>28.18</v>
+        <v>71.760000000000005</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>81.34</v>
+        <v>243.57</v>
       </c>
       <c r="E3" s="1">
-        <v>106.24</v>
+        <v>246.87</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <v>89.9</v>
+        <v>220.17</v>
       </c>
       <c r="E4" s="1">
-        <v>113.04</v>
+        <v>232.98</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>75</v>
       </c>
       <c r="D5" s="1">
-        <v>80.53</v>
+        <v>243.68</v>
       </c>
       <c r="E5" s="1">
-        <v>105.3</v>
+        <v>237.44</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8">
+        <f>AVERAGE(D2:D8)</f>
+        <v>212.47285714285712</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>93.91</v>
+        <v>221.3</v>
       </c>
       <c r="E6" s="1">
-        <v>112.09</v>
+        <v>227.58</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9">
+        <f>AVERAGE(E2:E8)</f>
+        <v>210.1142857142857</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>150</v>
       </c>
       <c r="D7" s="1">
-        <v>92.33</v>
+        <v>245.36</v>
       </c>
       <c r="E7" s="1">
-        <v>111.8</v>
+        <v>229.9</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>200</v>
       </c>
       <c r="D8" s="1">
-        <v>85.45</v>
+        <v>244.79</v>
       </c>
       <c r="E8" s="1">
-        <v>107.3</v>
+        <v>224.27</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2765,85 +2819,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>105.51</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>63.07</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>25</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>222.59</v>
       </c>
       <c r="E35" s="1">
-        <v>10</v>
+        <v>242.39</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>50</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>229.05</v>
       </c>
       <c r="E36" s="1">
-        <v>10</v>
+        <v>243.96</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>75</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>234.14</v>
       </c>
       <c r="E37" s="1">
-        <v>10</v>
+        <v>232.87</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="8">
+        <f>AVERAGE(D34:D40)</f>
+        <v>204.79857142857145</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>100</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>216.8</v>
       </c>
       <c r="E38" s="1">
-        <v>10</v>
+        <v>237.35</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="9">
+        <f>AVERAGE(E34:E40)</f>
+        <v>211.54571428571427</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>150</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>209.59</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>232.11</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>215.91</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
+        <v>229.07</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>